--- a/lab1.01/lab1.01_excel.xlsx
+++ b/lab1.01/lab1.01_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\only_labs_java\physic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\only_labs_java\physics\lab1.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3436ED19-9119-4772-AF6B-E1E29A78992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C3A39-EDF2-4C22-8C2B-551925902CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{577842F4-D254-4687-9917-995D21541163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{577842F4-D254-4687-9917-995D21541163}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,20 @@
     <t>№</t>
   </si>
   <si>
-    <t>l, см</t>
+    <t>Среднее:</t>
+  </si>
+  <si>
+    <t>Max:</t>
+  </si>
+  <si>
+    <t>Min:</t>
+  </si>
+  <si>
+    <t>t, см</t>
   </si>
   <si>
     <r>
-      <t>l</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -67,7 +76,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - (l)</t>
+      <t xml:space="preserve"> - (t)</t>
     </r>
     <r>
       <rPr>
@@ -95,7 +104,7 @@
   </si>
   <si>
     <r>
-      <t>(l</t>
+      <t>(t</t>
     </r>
     <r>
       <rPr>
@@ -118,7 +127,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - (l)</t>
+      <t xml:space="preserve"> - (t)</t>
     </r>
     <r>
       <rPr>
@@ -179,21 +188,15 @@
       <t>2</t>
     </r>
   </si>
-  <si>
-    <t>Среднее:</t>
-  </si>
-  <si>
-    <t>Max:</t>
-  </si>
-  <si>
-    <t>Min:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +223,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -252,14 +269,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,6 +350,1158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Полученный график</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="19"/>
+        <c:axId val="176131440"/>
+        <c:axId val="176130608"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$I$43:$I$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.42</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$J$43:$J$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.42699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.079</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.57</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2869999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.60699999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.16300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.8000000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1375-4155-9EEB-1EAB00939950}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$I$43:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$43:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B672-4B04-BFD5-C9D118E240E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="176131440"/>
+        <c:axId val="176130608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="176131440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176130608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176130608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176131440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD23E01D-D86F-43D9-A652-3526B2CBAFB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,49 +1801,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFE4ED5-E51C-4909-8657-55CD7A477061}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <f>B2-$H$2</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2^2</f>
+        <v>4.0000000000000029E-2</v>
+      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -625,553 +1859,1124 @@
       <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C51" si="0">B3-$H$2</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D51" si="1">C3^2</f>
+        <v>3.999999999999998E-2</v>
+      </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>MAX(B2:B51)</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <f t="shared" ref="A4:A51" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000018E-2</v>
+      </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f>MIN(B1:B51)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIFS(B2:B51,"&gt;0,191",B2:B51,"&lt;=1,208")</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1.5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H7">
+        <f>SUM(D2:D51)</f>
+        <v>3.1660000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0.9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000029E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999993</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999955E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0.3</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="F10">
+        <f>SUM(B2:B51)/50</f>
+        <v>0.70000000000000029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0.8</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0.6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>0.4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999993</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999955E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="I18">
+        <f>SUM(D2:D51)</f>
+        <v>3.1660000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>0.35</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.35</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12249999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0.3</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>0.65</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4999999999999935E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>0.7</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>0.45</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999994</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999972E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>0.88</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2400000000000019E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>0.79</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000152E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000011</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="6">
+        <v>4</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0.7</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>0.62</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999934E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="M29" s="6">
+        <v>12</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>0.91</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4100000000000035E-2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M31" s="6">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1.5589999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>0.9</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000029E-2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0.6</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="M33" s="6">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>0.7</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>0.6</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="M35" s="6">
+        <v>7</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>0.8</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000018E-2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>0.8</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000018E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>0.5</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>0.8</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000018E-2</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="M39" s="6">
+        <v>1</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O39" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="P39" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>0.75</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000044E-3</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>0.6</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>0.6</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="I43">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J43">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>0.95</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I44">
+        <v>0.48</v>
+      </c>
+      <c r="J44">
+        <v>1.079</v>
+      </c>
+      <c r="L44">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>0.85</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2500000000000006E-2</v>
+      </c>
+      <c r="I45">
+        <v>0.67</v>
+      </c>
+      <c r="J45">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="L45">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>0.5</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="I46">
+        <v>0.7</v>
+      </c>
+      <c r="J46">
+        <v>1.57</v>
+      </c>
+      <c r="L46">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>0.45</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999994</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999972E-2</v>
+      </c>
+      <c r="I47">
+        <v>0.86</v>
+      </c>
+      <c r="J47">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="L47">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>0.45</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999994</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999972E-2</v>
+      </c>
+      <c r="I48">
+        <v>1.05</v>
+      </c>
+      <c r="J48">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="L48">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>0.45</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999994</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999972E-2</v>
+      </c>
+      <c r="I49">
+        <v>1.24</v>
+      </c>
+      <c r="J49">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L49">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999991</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999975E-2</v>
+      </c>
+      <c r="I50">
+        <v>1.42</v>
+      </c>
+      <c r="J50">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L50">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0.7</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>